--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed3/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.806</v>
+        <v>-12.81329999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.32830000000001</v>
+        <v>-22.35100000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.50819999999998</v>
+        <v>-21.65789999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.55359999999998</v>
+        <v>-21.56840000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.12649999999999</v>
+        <v>-14.41439999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.03650000000002</v>
+        <v>-22.0185</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.196</v>
+        <v>-11.9176</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.8579</v>
+        <v>-12.0444</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.41520000000001</v>
+        <v>-11.518</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.64309999999999</v>
+        <v>-12.55049999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.9978</v>
+        <v>-12.8469</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.2106</v>
+        <v>-19.8957</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.1309</v>
+        <v>-13.1445</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.55109999999999</v>
+        <v>-13.62829999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2068</v>
+        <v>-22.3718</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.6234</v>
+        <v>-21.74069999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.5543</v>
+        <v>-11.7207</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.29610000000001</v>
+        <v>-12.1496</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.78159999999999</v>
+        <v>-20.8464</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.38289999999998</v>
+        <v>-20.56129999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.81410000000001</v>
+        <v>-21.7955</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.97390000000001</v>
+        <v>-22.1489</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.35949999999998</v>
+        <v>-13.42629999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.6768</v>
+        <v>-12.80779999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.8077</v>
+        <v>-12.7161</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.3503</v>
+        <v>-12.17679999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,7 +2151,7 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.07460000000001</v>
+        <v>-12.76580000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.1321</v>
+        <v>-13.17550000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
